--- a/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
+++ b/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="48" windowWidth="25872" windowHeight="11316"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>EoFoNVFE Effect of Feebate on New Veh Fuel Economy</t>
   </si>
@@ -91,6 +91,51 @@
   </si>
   <si>
     <t>perc increase in fuel econ / 2012$</t>
+  </si>
+  <si>
+    <t>Since the feebate is natively expressed in unusual units (dollars per (hundredth gallon per mile)), we</t>
+  </si>
+  <si>
+    <t>cause the lever in the EPS to represent the fraction of the best practice feebate rate, to improve</t>
+  </si>
+  <si>
+    <t>model usability for users.</t>
+  </si>
+  <si>
+    <t>Currency Year</t>
+  </si>
+  <si>
+    <t>Best Practice Feebate Rate</t>
+  </si>
+  <si>
+    <t>2012$ / (hundredth gal/mile)</t>
+  </si>
+  <si>
+    <t>Feebate at Full Policy Implementation</t>
+  </si>
+  <si>
+    <t>perc increase in fuel econ at full policy implementation</t>
+  </si>
+  <si>
+    <t>Effect of Feebate on Fuel Economy</t>
+  </si>
+  <si>
+    <t>Best Practices for Feebate Program Design and Implementation</t>
+  </si>
+  <si>
+    <t>http://www.theicct.org/sites/default/files/publications/ICCT_feebates_may2010.pdf</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>John German and Dan Meszler, ICCT</t>
+  </si>
+  <si>
+    <t>This rate is from Germany.</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -224,10 +269,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -247,6 +291,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5"/>
@@ -555,82 +605,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="84.5546875" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3">
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2">
         <v>2005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+    <row r="19" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>1.335</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -639,61 +756,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.16</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -705,16 +826,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10">
-        <f>B6/About!A13</f>
+      <c r="B7" s="9">
+        <f>B6/About!A26</f>
         <v>2.3970037453183523E-4</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <f>B7*B9</f>
+        <v>0.47940074906367047</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -731,14 +878,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -747,8 +894,8 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <f>Data!B7</f>
-        <v>2.3970037453183523E-4</v>
+        <f>Data!B11</f>
+        <v>0.47940074906367047</v>
       </c>
     </row>
   </sheetData>
